--- a/trunk/llamados de atencion y memorandos.xlsx
+++ b/trunk/llamados de atencion y memorandos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Laura" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>LLAMADOS DE ATENCIÓN POR ASISTENCIA</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>fecha de los memorandos por tareas y descripcion</t>
+  </si>
+  <si>
+    <t>fecha de los memorandos por tareas y descripción</t>
   </si>
 </sst>
 </file>
@@ -698,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -716,7 +719,7 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -748,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90">
+    <row r="2" spans="1:10" ht="60">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -786,8 +789,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>40252</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1216,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1289,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1308,8 +1315,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="6">
+        <v>40251</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/trunk/llamados de atencion y memorandos.xlsx
+++ b/trunk/llamados de atencion y memorandos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Laura" sheetId="1" r:id="rId1"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -795,7 +795,6 @@
       <c r="G3" s="6">
         <v>40252</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -805,10 +804,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>40255</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40255</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
@@ -1223,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1331,10 +1338,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="6">
+        <v>40255</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40255</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
@@ -1490,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1582,8 +1597,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="6">
+        <v>40255</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/trunk/llamados de atencion y memorandos.xlsx
+++ b/trunk/llamados de atencion y memorandos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Laura" sheetId="1" r:id="rId1"/>
@@ -1505,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1860,8 +1860,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="6">
+        <v>40262</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>

--- a/trunk/llamados de atencion y memorandos.xlsx
+++ b/trunk/llamados de atencion y memorandos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Laura" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:J16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -702,7 +702,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -972,7 +972,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1866,8 +1866,12 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="6">
+        <v>40267</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
@@ -1876,8 +1880,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="6">
+        <v>40267</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>

--- a/trunk/llamados de atencion y memorandos.xlsx
+++ b/trunk/llamados de atencion y memorandos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Laura" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1358,8 +1358,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="6">
+        <v>40280</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1772,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1886,8 +1890,12 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="6">
+        <v>40281</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
@@ -1896,8 +1904,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="6">
+        <v>40280</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1908,8 +1920,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="6">
+        <v>40281</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1920,8 +1936,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="6">
+        <v>40281</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
